--- a/Export/FeatureSelection_LawSuit_RFONLY.xlsx
+++ b/Export/FeatureSelection_LawSuit_RFONLY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>feature</t>
   </si>
@@ -25,103 +25,94 @@
     <t>Model</t>
   </si>
   <si>
+    <t>sstk_std</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>teq</t>
+  </si>
+  <si>
+    <t>rest_sum_diff</t>
+  </si>
+  <si>
     <t>xopr</t>
   </si>
   <si>
+    <t>ceq</t>
+  </si>
+  <si>
     <t>caps</t>
   </si>
   <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>ceq</t>
+    <t>fopo_std</t>
+  </si>
+  <si>
+    <t>ceqt</t>
   </si>
   <si>
     <t>pi_std</t>
   </si>
   <si>
-    <t>sstk_std</t>
+    <t>icapt</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>tstk</t>
+  </si>
+  <si>
+    <t>cogs</t>
+  </si>
+  <si>
+    <t>revt</t>
+  </si>
+  <si>
+    <t>sec_trt1m_std</t>
+  </si>
+  <si>
+    <t>rest_count</t>
+  </si>
+  <si>
+    <t>rest_a_count_of_diffs</t>
+  </si>
+  <si>
+    <t>lse</t>
+  </si>
+  <si>
+    <t>rest_count_of_diffs</t>
   </si>
   <si>
     <t>cogs_std</t>
   </si>
   <si>
-    <t>dp</t>
-  </si>
-  <si>
-    <t>rest_sum_diff</t>
+    <t>st_per_growth</t>
   </si>
   <si>
     <t>sstk</t>
   </si>
   <si>
+    <t>lct</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>dilavx_std</t>
+  </si>
+  <si>
     <t>xopr_std</t>
   </si>
   <si>
-    <t>lse</t>
-  </si>
-  <si>
-    <t>teq</t>
-  </si>
-  <si>
-    <t>rest_a_count_of_diffs</t>
-  </si>
-  <si>
-    <t>gp</t>
-  </si>
-  <si>
-    <t>at_std</t>
-  </si>
-  <si>
-    <t>icapt</t>
-  </si>
-  <si>
-    <t>rest_count_of_diffs</t>
-  </si>
-  <si>
-    <t>revt</t>
-  </si>
-  <si>
-    <t>fopo_std</t>
-  </si>
-  <si>
     <t>xsga</t>
   </si>
   <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>tstk</t>
-  </si>
-  <si>
-    <t>ceqt</t>
-  </si>
-  <si>
-    <t>rest_count</t>
-  </si>
-  <si>
-    <t>dilavx_std</t>
-  </si>
-  <si>
-    <t>lct</t>
-  </si>
-  <si>
-    <t>ceq_std</t>
-  </si>
-  <si>
-    <t>seq_std</t>
-  </si>
-  <si>
-    <t>invt</t>
-  </si>
-  <si>
-    <t>sec_trt1m_std</t>
-  </si>
-  <si>
-    <t>tot_tax_std</t>
-  </si>
-  <si>
-    <t>icapt_std</t>
+    <t>tstk_std</t>
+  </si>
+  <si>
+    <t>rect_std</t>
   </si>
   <si>
     <t>rat_spcsrc</t>
@@ -488,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.05936836012536634</v>
+        <v>0.04971417466192256</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -527,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.04448085585593663</v>
+        <v>0.03857920496335165</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -541,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.04330364829327429</v>
+        <v>0.03777455353823508</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -555,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.04155522263896471</v>
+        <v>0.03096279781564133</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -569,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.04031362597108206</v>
+        <v>0.02940931022326146</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -583,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.03908932476392177</v>
+        <v>0.02590396875357646</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -597,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.03843676832212337</v>
+        <v>0.02485518795836046</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -611,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.0379425788551238</v>
+        <v>0.02323817423979421</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -625,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.03595357638258925</v>
+        <v>0.02185509492567017</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -639,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.03238683576569578</v>
+        <v>0.02089165761873181</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -653,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0.03088900684995909</v>
+        <v>0.02078584915138635</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -667,10 +658,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.0253438264160008</v>
+        <v>0.02077248944233076</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -681,10 +672,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.02491401808079273</v>
+        <v>0.01928175878266098</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -695,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0.02392882786457341</v>
+        <v>0.01925306366437383</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -709,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0.0233902266769408</v>
+        <v>0.01893172555107008</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -723,10 +714,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.02287440902780302</v>
+        <v>0.01886629464409779</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -737,10 +728,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.02203483965053024</v>
+        <v>0.01752467437758706</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -751,10 +742,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0.02081628755925887</v>
+        <v>0.01700241946746915</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -765,10 +756,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>0.02034944590047191</v>
+        <v>0.01635374448785916</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -779,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0.01876608405328162</v>
+        <v>0.01623119717182976</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -793,10 +784,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>0.01640542831968089</v>
+        <v>0.01579639654606069</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -807,10 +798,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>0.0153984767811917</v>
+        <v>0.01568318366536436</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -821,10 +812,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>0.01512782779687607</v>
+        <v>0.01490504208014596</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -835,10 +826,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>0.01417570923072858</v>
+        <v>0.01431435953686472</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -849,10 +840,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>0.01370577589896684</v>
+        <v>0.01410872410330963</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -863,10 +854,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>0.01356600908861781</v>
+        <v>0.012630089981958</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -877,10 +868,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>0.01340536308183276</v>
+        <v>0.01122832853933041</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -891,10 +882,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>0.01318991684277836</v>
+        <v>0.01119838196101883</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -905,10 +896,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>0.0125181251162253</v>
+        <v>0.01118596017342582</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -919,10 +910,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>0.01203810800814309</v>
+        <v>0.01060450737039614</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -933,52 +924,10 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>0.0118863223393106</v>
+        <v>0.001111</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>0.01152243565755262</v>
-      </c>
-      <c r="D33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
         <v>35</v>
-      </c>
-      <c r="C34">
-        <v>0.01112284749121236</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>0.001111</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Export/FeatureSelection_LawSuit_RFONLY.xlsx
+++ b/Export/FeatureSelection_LawSuit_RFONLY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>feature</t>
   </si>
@@ -28,12 +28,12 @@
     <t>sstk_std</t>
   </si>
   <si>
+    <t>teq</t>
+  </si>
+  <si>
     <t>seq</t>
   </si>
   <si>
-    <t>teq</t>
-  </si>
-  <si>
     <t>rest_sum_diff</t>
   </si>
   <si>
@@ -46,73 +46,76 @@
     <t>caps</t>
   </si>
   <si>
+    <t>tstk</t>
+  </si>
+  <si>
     <t>fopo_std</t>
   </si>
   <si>
+    <t>sec_trt1m_std</t>
+  </si>
+  <si>
     <t>ceqt</t>
   </si>
   <si>
+    <t>icapt</t>
+  </si>
+  <si>
+    <t>rest_count_of_diffs</t>
+  </si>
+  <si>
+    <t>lse</t>
+  </si>
+  <si>
     <t>pi_std</t>
   </si>
   <si>
-    <t>icapt</t>
+    <t>revt</t>
+  </si>
+  <si>
+    <t>sstk</t>
+  </si>
+  <si>
+    <t>st_per_growth</t>
   </si>
   <si>
     <t>at</t>
   </si>
   <si>
-    <t>tstk</t>
+    <t>rest_count</t>
   </si>
   <si>
     <t>cogs</t>
   </si>
   <si>
-    <t>revt</t>
-  </si>
-  <si>
-    <t>sec_trt1m_std</t>
-  </si>
-  <si>
-    <t>rest_count</t>
-  </si>
-  <si>
-    <t>rest_a_count_of_diffs</t>
-  </si>
-  <si>
-    <t>lse</t>
-  </si>
-  <si>
-    <t>rest_count_of_diffs</t>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>xsga</t>
+  </si>
+  <si>
+    <t>rect_std</t>
   </si>
   <si>
     <t>cogs_std</t>
   </si>
   <si>
-    <t>st_per_growth</t>
-  </si>
-  <si>
-    <t>sstk</t>
-  </si>
-  <si>
     <t>lct</t>
   </si>
   <si>
-    <t>gp</t>
-  </si>
-  <si>
     <t>dilavx_std</t>
   </si>
   <si>
-    <t>xopr_std</t>
-  </si>
-  <si>
-    <t>xsga</t>
-  </si>
-  <si>
     <t>tstk_std</t>
   </si>
   <si>
-    <t>rect_std</t>
+    <t>auop</t>
+  </si>
+  <si>
+    <t>dlc</t>
+  </si>
+  <si>
+    <t>xsga_std</t>
   </si>
   <si>
     <t>rat_spcsrc</t>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.04971417466192256</v>
+        <v>0.05152090202630415</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -518,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.03857920496335165</v>
+        <v>0.04210914267773873</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -532,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.03777455353823508</v>
+        <v>0.04113480038972558</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -546,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.03096279781564133</v>
+        <v>0.02964086773085264</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -560,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.02940931022326146</v>
+        <v>0.02894210148331851</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -574,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.02590396875357646</v>
+        <v>0.02673327775011868</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -588,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.02485518795836046</v>
+        <v>0.02374550671631139</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -602,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.02323817423979421</v>
+        <v>0.02261428377865916</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -616,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.02185509492567017</v>
+        <v>0.02202374152521238</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -630,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.02089165761873181</v>
+        <v>0.02085166940573271</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -644,10 +647,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>0.02078584915138635</v>
+        <v>0.02081067191182673</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -658,10 +661,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.02077248944233076</v>
+        <v>0.02018532661059256</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -672,10 +675,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.01928175878266098</v>
+        <v>0.02006966905846362</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -686,10 +689,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0.01925306366437383</v>
+        <v>0.01844682961883291</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -700,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0.01893172555107008</v>
+        <v>0.0179690776523493</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -714,10 +717,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.01886629464409779</v>
+        <v>0.01768615437752864</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -728,10 +731,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.01752467437758706</v>
+        <v>0.01747198953836201</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -742,10 +745,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>0.01700241946746915</v>
+        <v>0.01659163279284432</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -756,10 +759,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>0.01635374448785916</v>
+        <v>0.01653665368324137</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -770,10 +773,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0.01623119717182976</v>
+        <v>0.01653338496751571</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -784,10 +787,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>0.01579639654606069</v>
+        <v>0.01642483665464855</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -798,10 +801,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>0.01568318366536436</v>
+        <v>0.01639626005398251</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -812,10 +815,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>0.01490504208014596</v>
+        <v>0.01488677887659137</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -826,10 +829,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>0.01431435953686472</v>
+        <v>0.01412363442861623</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -840,10 +843,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>0.01410872410330963</v>
+        <v>0.01403655662386116</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -854,10 +857,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>0.012630089981958</v>
+        <v>0.01353114676459853</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -868,10 +871,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>0.01122832853933041</v>
+        <v>0.01110092391154593</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -882,10 +885,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>0.01119838196101883</v>
+        <v>0.01082068248664309</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -896,10 +899,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>0.01118596017342582</v>
+        <v>0.01058660278150156</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -910,10 +913,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>0.01060450737039614</v>
+        <v>0.01045068502105618</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -924,10 +927,24 @@
         <v>33</v>
       </c>
       <c r="C32">
+        <v>0.01028382202854827</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
         <v>0.001111</v>
       </c>
-      <c r="D32" t="s">
-        <v>35</v>
+      <c r="D33" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
